--- a/xlsx/_wiki_塔布阿埃兰环礁_intext.xlsx
+++ b/xlsx/_wiki_塔布阿埃兰环礁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>塔布阿埃兰环礁</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://be.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B1%D1%83%D0%B0%D1%8D%D1%80%D0%B0%D0%BD</t>
@@ -570,7 +564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -871,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1354,29 +1348,6 @@
         <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_塔布阿埃兰环礁_intext.xlsx
+++ b/xlsx/_wiki_塔布阿埃兰环礁_intext.xlsx
@@ -23,37 +23,37 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%A1%94%E5%B8%83%E9%98%BF%E5%9F%83%E5%85%B0%E7%8E%AF%E7%A4%81</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
   </si>
   <si>
     <t>太平洋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
     <t>基里巴斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%A4%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
     <t>环礁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%90%8A%E6%81%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
     <t>莱恩群岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
     <t>夏威夷群岛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B8%83%E9%98%BF%E5%9F%83%E8%98%AD%E7%92%B0%E7%A4%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A1%94%E5%B8%83%E9%98%BF%E5%9F%83%E8%98%AD%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
